--- a/app/files/2023-StMM-Overzicht-Weezenkerkhof.xlsx
+++ b/app/files/2023-StMM-Overzicht-Weezenkerkhof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maurice\Desktop\SSS-dev\webapplication-stichting-memento-mori\app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E17A8-1D22-4088-8685-5169F856BB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E64FC6-FC4B-4073-A686-A562E7D5BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CC40A5F-39CE-A24E-BAE0-2D8E0A6EA817}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="URN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -11137,8 +11136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC831DE1-BD87-6B4F-B4E8-1B2FF245A412}">
   <dimension ref="A1:AP872"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A520" sqref="A520"/>
     </sheetView>
   </sheetViews>
